--- a/double-fetch vulnerability dataset.xlsx
+++ b/double-fetch vulnerability dataset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="480" windowWidth="23620" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="5540" yWindow="4060" windowWidth="23620" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表2" sheetId="2" r:id="rId1"/>
@@ -34,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CVE-2008-2250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Windows</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1012,6 +1008,10 @@
   </si>
   <si>
     <t>Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2008-2252</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2031,11 +2031,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2127754696"/>
-        <c:axId val="2129151624"/>
+        <c:axId val="-2128120216"/>
+        <c:axId val="2081459656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2127754696"/>
+        <c:axId val="-2128120216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2044,7 +2044,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129151624"/>
+        <c:crossAx val="2081459656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2052,7 +2052,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2129151624"/>
+        <c:axId val="2081459656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2063,7 +2063,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127754696"/>
+        <c:crossAx val="-2128120216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2172,11 +2172,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2121967960"/>
-        <c:axId val="2122267240"/>
+        <c:axId val="-2129166312"/>
+        <c:axId val="-2129035864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2121967960"/>
+        <c:axId val="-2129166312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2185,7 +2185,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122267240"/>
+        <c:crossAx val="-2129035864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2193,7 +2193,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122267240"/>
+        <c:axId val="-2129035864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2204,7 +2204,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121967960"/>
+        <c:crossAx val="-2129166312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2620,8 +2620,8 @@
   <dimension ref="A1:K113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2640,7 +2640,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="22" customHeight="1">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2649,28 +2649,28 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="60">
@@ -2678,31 +2678,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>265</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K2" s="3"/>
     </row>
@@ -2711,29 +2711,29 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K3" s="3"/>
     </row>
@@ -2742,29 +2742,29 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K4" s="3"/>
     </row>
@@ -2773,29 +2773,29 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K5" s="3"/>
     </row>
@@ -2804,29 +2804,29 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K6" s="3"/>
     </row>
@@ -2835,29 +2835,29 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K7" s="3"/>
     </row>
@@ -2866,29 +2866,29 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -2897,29 +2897,29 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K9" s="3"/>
     </row>
@@ -2928,29 +2928,29 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K10" s="3"/>
     </row>
@@ -2959,29 +2959,29 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K11" s="3"/>
     </row>
@@ -2990,29 +2990,29 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K12" s="3"/>
     </row>
@@ -3021,29 +3021,29 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K13" s="3"/>
     </row>
@@ -3052,29 +3052,29 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K14" s="3"/>
     </row>
@@ -3083,29 +3083,29 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K15" s="3"/>
     </row>
@@ -3114,29 +3114,29 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K16" s="3"/>
     </row>
@@ -3145,29 +3145,29 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -3176,29 +3176,29 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -3207,29 +3207,29 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K19" s="3"/>
     </row>
@@ -3238,29 +3238,29 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K20" s="3"/>
     </row>
@@ -3269,29 +3269,29 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -3300,29 +3300,29 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -3331,29 +3331,29 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -3362,29 +3362,29 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K24" s="3"/>
     </row>
@@ -3393,29 +3393,29 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K25" s="3"/>
     </row>
@@ -3424,29 +3424,29 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K26" s="3"/>
     </row>
@@ -3455,29 +3455,29 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K27" s="3"/>
     </row>
@@ -3486,29 +3486,29 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K28" s="3"/>
     </row>
@@ -3517,29 +3517,29 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="H29" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="I29" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K29" s="3"/>
     </row>
@@ -3548,29 +3548,29 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="I30" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K30" s="3"/>
     </row>
@@ -3579,29 +3579,29 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H31" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="H31" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="I31" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K31" s="3"/>
     </row>
@@ -3610,29 +3610,29 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="H32" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="I32" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K32" s="3"/>
     </row>
@@ -3641,23 +3641,23 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K33" s="3"/>
     </row>
@@ -3666,23 +3666,23 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K34" s="3"/>
     </row>
@@ -3691,23 +3691,23 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K35" s="3"/>
     </row>
@@ -3716,23 +3716,23 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K36" s="3"/>
     </row>
@@ -3741,29 +3741,29 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K37" s="3"/>
     </row>
@@ -3772,29 +3772,29 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K38" s="3"/>
     </row>
@@ -3803,29 +3803,29 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K39" s="3"/>
     </row>
@@ -3834,25 +3834,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K40" s="3"/>
     </row>
@@ -3862,25 +3862,25 @@
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" s="4">
         <v>8</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="K41" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="45">
@@ -3889,23 +3889,23 @@
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -3913,30 +3913,30 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="D43" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K43" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="30">
@@ -3944,27 +3944,27 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K44" s="3"/>
     </row>
@@ -3973,32 +3973,32 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="E45" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I45" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="K45" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="45">
@@ -4006,34 +4006,34 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="4" t="s">
+      <c r="G46" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>184</v>
-      </c>
       <c r="H46" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="60">
@@ -4041,34 +4041,34 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D47" s="4">
         <v>4.5</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G47" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="I47" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="J47" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="K47" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="30">
@@ -4076,34 +4076,34 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D48" s="4">
         <v>4.5</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="45">
@@ -4111,32 +4111,32 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D49" s="4">
         <v>4.5999999999999996</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J49" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="K49" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="60">
@@ -4144,32 +4144,32 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D50" s="4">
         <v>4.5999999999999996</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="60">
@@ -4177,34 +4177,34 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D51" s="4">
         <v>4.5</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J51" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K51" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="45">
@@ -4212,32 +4212,32 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D52" s="4">
         <v>4.7</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J52" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="K52" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="30">
@@ -4246,29 +4246,29 @@
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="30">
@@ -4276,30 +4276,30 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="30">
@@ -4307,27 +4307,27 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="E55" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K55" s="3"/>
     </row>
@@ -4336,27 +4336,27 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K56" s="3"/>
     </row>
@@ -4365,27 +4365,27 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -4394,27 +4394,27 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K58" s="3"/>
     </row>
@@ -4423,27 +4423,27 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K59" s="3"/>
     </row>
@@ -4452,27 +4452,27 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K60" s="3"/>
     </row>
@@ -4481,27 +4481,27 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K61" s="3"/>
     </row>
@@ -4510,27 +4510,27 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K62" s="3"/>
     </row>
@@ -4539,27 +4539,27 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K63" s="3"/>
     </row>
@@ -4568,27 +4568,27 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K64" s="3"/>
     </row>
@@ -4597,27 +4597,27 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K65" s="3"/>
     </row>
@@ -4626,27 +4626,27 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K66" s="3"/>
     </row>
@@ -4655,27 +4655,27 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K67" s="3"/>
     </row>
@@ -4684,27 +4684,27 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K68" s="3"/>
     </row>
@@ -4713,27 +4713,27 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K69" s="3"/>
     </row>
@@ -4742,27 +4742,27 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K70" s="3"/>
     </row>
@@ -4771,27 +4771,27 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K71" s="3"/>
     </row>
@@ -4800,27 +4800,27 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K72" s="3"/>
     </row>
@@ -4829,27 +4829,27 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K73" s="3"/>
     </row>
@@ -4858,27 +4858,27 @@
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K74" s="3"/>
     </row>
@@ -4887,27 +4887,27 @@
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K75" s="3"/>
     </row>
@@ -4916,27 +4916,27 @@
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K76" s="3"/>
     </row>
@@ -4945,27 +4945,27 @@
         <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K77" s="3"/>
     </row>
@@ -4974,27 +4974,27 @@
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K78" s="3"/>
     </row>
@@ -5003,27 +5003,27 @@
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K79" s="3"/>
     </row>
@@ -5032,27 +5032,27 @@
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K80" s="3"/>
     </row>
@@ -5061,27 +5061,27 @@
         <v>80</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K81" s="3"/>
     </row>
@@ -5090,27 +5090,27 @@
         <v>81</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K82" s="3"/>
     </row>
@@ -5119,27 +5119,27 @@
         <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K83" s="3"/>
     </row>
@@ -5148,27 +5148,27 @@
         <v>83</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K84" s="3"/>
     </row>
@@ -5177,27 +5177,27 @@
         <v>84</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K85" s="3"/>
     </row>
@@ -5206,27 +5206,27 @@
         <v>85</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K86" s="3"/>
     </row>
@@ -5235,27 +5235,27 @@
         <v>86</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K87" s="3"/>
     </row>
@@ -5264,27 +5264,27 @@
         <v>87</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K88" s="3"/>
     </row>
@@ -5293,44 +5293,44 @@
         <v>88</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I89" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="I89" s="7" t="s">
-        <v>182</v>
-      </c>
       <c r="J89" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K89" s="3"/>
     </row>
     <row r="94" spans="1:11">
       <c r="B94" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="B95" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C95" s="9">
         <v>0.46600000000000003</v>
@@ -5341,7 +5341,7 @@
     </row>
     <row r="96" spans="1:11">
       <c r="B96" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C96" s="9">
         <v>0.39800000000000002</v>
@@ -5352,7 +5352,7 @@
     </row>
     <row r="97" spans="2:7">
       <c r="B97" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C97" s="9">
         <v>0.432</v>
@@ -5363,7 +5363,7 @@
     </row>
     <row r="98" spans="2:7">
       <c r="B98" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C98" s="9">
         <v>0.10199999999999999</v>
@@ -5374,47 +5374,47 @@
     </row>
     <row r="111" spans="2:7">
       <c r="B111" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D111" s="1">
         <v>30</v>
       </c>
       <c r="E111" t="s">
+        <v>245</v>
+      </c>
+      <c r="F111" t="s">
         <v>246</v>
-      </c>
-      <c r="F111" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="112" spans="2:7">
       <c r="B112" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D112" s="1">
         <v>3</v>
       </c>
       <c r="E112" t="s">
+        <v>247</v>
+      </c>
+      <c r="F112" t="s">
         <v>248</v>
       </c>
-      <c r="F112" t="s">
-        <v>249</v>
-      </c>
       <c r="G112" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="113" spans="2:6">
       <c r="B113" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D113" s="1">
         <v>2</v>
       </c>
       <c r="E113" t="s">
+        <v>252</v>
+      </c>
+      <c r="F113" t="s">
         <v>253</v>
-      </c>
-      <c r="F113" t="s">
-        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -5445,15 +5445,15 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" t="s">
         <v>225</v>
-      </c>
-      <c r="D1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B2" s="8">
         <v>0.46600000000000003</v>
@@ -5464,7 +5464,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B3" s="8">
         <v>0.39800000000000002</v>
@@ -5475,7 +5475,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B4" s="8">
         <v>0.432</v>
@@ -5486,7 +5486,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B5" s="8">
         <v>0.10199999999999999</v>
@@ -5497,7 +5497,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -5505,7 +5505,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -5513,7 +5513,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -5521,7 +5521,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -5529,7 +5529,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/double-fetch vulnerability dataset.xlsx
+++ b/double-fetch vulnerability dataset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="100" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="2900" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表2" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="286">
   <si>
     <t>CVE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -807,10 +807,6 @@
     <t>https://www.insinuator.net/2015/12/xen-xsa-155-double-fetches-in-paravirtualized-devices/</t>
   </si>
   <si>
-    <t>Linux(Xen)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Gain privileges</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1077,6 +1073,18 @@
   </si>
   <si>
     <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xenbits.xen.org/xsa/advisory-197.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XSA-197</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1141,7 +1149,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="419">
+  <cellStyleXfs count="431">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1310,6 +1318,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1585,7 +1605,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="419">
+  <cellStyles count="431">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1793,6 +1813,12 @@
     <cellStyle name="超链接" xfId="413" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="415" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="429" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2004,6 +2030,12 @@
     <cellStyle name="访问过的超链接" xfId="414" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="416" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="430" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2102,11 +2134,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2124214312"/>
-        <c:axId val="-2132771352"/>
+        <c:axId val="-2122818344"/>
+        <c:axId val="-2122815992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2124214312"/>
+        <c:axId val="-2122818344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2115,7 +2147,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132771352"/>
+        <c:crossAx val="-2122815992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2123,7 +2155,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2132771352"/>
+        <c:axId val="-2122815992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2134,7 +2166,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124214312"/>
+        <c:crossAx val="-2122818344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2243,11 +2275,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2128397288"/>
-        <c:axId val="-2128394344"/>
+        <c:axId val="-2121055048"/>
+        <c:axId val="-2121034856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2128397288"/>
+        <c:axId val="-2121055048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2256,7 +2288,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128394344"/>
+        <c:crossAx val="-2121034856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2264,7 +2296,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2128394344"/>
+        <c:axId val="-2121034856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2275,7 +2307,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128397288"/>
+        <c:crossAx val="-2121055048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2691,8 +2723,8 @@
   <dimension ref="A1:K116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2704,14 +2736,14 @@
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
     <col min="7" max="7" width="17.6640625" customWidth="1"/>
     <col min="8" max="8" width="32.5" customWidth="1"/>
-    <col min="9" max="9" width="29.83203125" customWidth="1"/>
+    <col min="9" max="9" width="42.5" customWidth="1"/>
     <col min="10" max="10" width="36.33203125" customWidth="1"/>
     <col min="11" max="11" width="52.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -2749,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -2773,7 +2805,7 @@
         <v>19</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K2" s="4"/>
     </row>
@@ -2796,7 +2828,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>181</v>
@@ -3810,7 +3842,7 @@
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>20</v>
@@ -3819,7 +3851,7 @@
         <v>19</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K38" s="4"/>
     </row>
@@ -4843,7 +4875,7 @@
         <v>10</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>130</v>
@@ -4920,28 +4952,28 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="D75" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="F75" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="E75" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F75" s="3" t="s">
+      <c r="G75" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="I75" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="J75" s="3" t="s">
         <v>121</v>
@@ -5048,7 +5080,7 @@
         <v>140</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I79" s="4"/>
       <c r="J79" s="4" t="s">
@@ -5077,7 +5109,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I80" s="4" t="s">
         <v>208</v>
@@ -5108,13 +5140,13 @@
         <v>142</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I81" s="4" t="s">
         <v>209</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K81" s="4" t="s">
         <v>210</v>
@@ -5143,13 +5175,13 @@
         <v>183</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I82" s="4" t="s">
         <v>190</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K82" s="4" t="s">
         <v>212</v>
@@ -5163,7 +5195,7 @@
         <v>31</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>214</v>
+        <v>285</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="4" t="s">
@@ -5209,13 +5241,13 @@
         <v>184</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I84" s="4" t="s">
         <v>185</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K84" s="4" t="s">
         <v>192</v>
@@ -5226,7 +5258,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>18</v>
@@ -5250,7 +5282,7 @@
         <v>186</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K85" s="4" t="s">
         <v>193</v>
@@ -5277,7 +5309,7 @@
         <v>201</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I86" s="4" t="s">
         <v>187</v>
@@ -5316,13 +5348,13 @@
         <v>188</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K87" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="45">
+    <row r="88" spans="1:11" ht="30">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -5345,7 +5377,7 @@
         <v>201</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I88" s="4" t="s">
         <v>189</v>
@@ -5399,7 +5431,7 @@
         <v>18</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>51</v>
@@ -5409,13 +5441,13 @@
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I90" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K90" s="4" t="s">
         <v>211</v>
@@ -5426,59 +5458,61 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>275</v>
       </c>
       <c r="D91" s="6"/>
       <c r="E91" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
+      <c r="G91" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="H91" s="3"/>
       <c r="I91" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="K91" s="3"/>
+      <c r="K91" s="4" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="3">
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="D92" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D92" s="6" t="s">
-        <v>279</v>
-      </c>
       <c r="E92" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="J92" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="I92" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="J92" s="3" t="s">
-        <v>281</v>
-      </c>
       <c r="K92" s="3"/>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="3">
-        <v>49</v>
-      </c>
+      <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="6"/>
@@ -5491,9 +5525,7 @@
       <c r="K93" s="3"/>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="3">
-        <v>50</v>
-      </c>
+      <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="6"/>
@@ -5506,9 +5538,7 @@
       <c r="K94" s="3"/>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="3">
-        <v>51</v>
-      </c>
+      <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="6"/>
@@ -5521,9 +5551,7 @@
       <c r="K95" s="3"/>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="3">
-        <v>52</v>
-      </c>
+      <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="6"/>
@@ -5536,17 +5564,15 @@
       <c r="K96" s="3"/>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="3">
-        <v>53</v>
-      </c>
+      <c r="A97" s="3"/>
       <c r="B97" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D97" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>264</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
@@ -5557,11 +5583,9 @@
       <c r="K97" s="3"/>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="3">
-        <v>55</v>
-      </c>
+      <c r="A98" s="3"/>
       <c r="B98" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C98" s="8">
         <v>0.46200000000000002</v>
@@ -5578,11 +5602,9 @@
       <c r="K98" s="3"/>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="3">
-        <v>56</v>
-      </c>
+      <c r="A99" s="3"/>
       <c r="B99" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C99" s="8">
         <v>0.39500000000000002</v>
@@ -5601,7 +5623,7 @@
     <row r="100" spans="1:11">
       <c r="A100" s="3"/>
       <c r="B100" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C100" s="8">
         <v>0.42899999999999999</v>
@@ -5620,7 +5642,7 @@
     <row r="101" spans="1:11">
       <c r="A101" s="3"/>
       <c r="B101" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C101" s="8">
         <v>0.11</v>
@@ -5636,49 +5658,58 @@
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
     </row>
-    <row r="114" spans="2:7">
+    <row r="114" spans="2:9">
       <c r="B114" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D114" s="1">
         <v>30</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="G114" t="s">
+        <v>244</v>
+      </c>
+      <c r="H114" t="s">
         <v>245</v>
       </c>
-      <c r="F114" t="s">
+    </row>
+    <row r="115" spans="2:9">
+      <c r="B115" t="s">
+        <v>249</v>
+      </c>
+      <c r="D115" s="1">
+        <v>3</v>
+      </c>
+      <c r="E115" s="2">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G115" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="115" spans="2:7">
-      <c r="B115" t="s">
+      <c r="H115" t="s">
+        <v>247</v>
+      </c>
+      <c r="I115" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9">
+      <c r="B116" t="s">
         <v>250</v>
-      </c>
-      <c r="D115" s="1">
-        <v>3</v>
-      </c>
-      <c r="E115" t="s">
-        <v>247</v>
-      </c>
-      <c r="F115" t="s">
-        <v>248</v>
-      </c>
-      <c r="G115" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="116" spans="2:7">
-      <c r="B116" t="s">
-        <v>251</v>
       </c>
       <c r="D116" s="1">
         <v>2</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="2">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G116" t="s">
+        <v>251</v>
+      </c>
+      <c r="H116" t="s">
         <v>252</v>
-      </c>
-      <c r="F116" t="s">
-        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -5709,15 +5740,15 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" t="s">
         <v>224</v>
-      </c>
-      <c r="D1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B2" s="2">
         <v>0.46600000000000003</v>
@@ -5728,7 +5759,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B3" s="2">
         <v>0.39800000000000002</v>
@@ -5739,7 +5770,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B4" s="2">
         <v>0.432</v>
@@ -5750,7 +5781,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B5" s="2">
         <v>0.10199999999999999</v>
@@ -5761,7 +5792,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -5769,7 +5800,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -5777,7 +5808,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -5785,7 +5816,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -5793,7 +5824,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/double-fetch vulnerability dataset.xlsx
+++ b/double-fetch vulnerability dataset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="25640" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表2" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="293">
   <si>
     <t>CVE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,9 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>driver</t>
-  </si>
-  <si>
     <t>Win32K.sys</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -694,397 +691,428 @@
     <t>ZoneAlarm Extreme Security 9.1.507.000</t>
   </si>
   <si>
+    <t>3.19.1 </t>
+  </si>
+  <si>
+    <t>DSA-3170</t>
+  </si>
+  <si>
+    <t>DSA-3616</t>
+  </si>
+  <si>
+    <t>MIC VOP (Virtio Over PCIe) driver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IBM (z-Series) s390 platform driver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux Auditing subsystem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expose the Chrome OS Embedded Controller to user-space</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The aacraid driver (adds support for AdaptecRAID controllers)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sizechecking(inter-precedure)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bugzilla.kernel.org/show_bug.cgi?id=116651</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bugzilla.kernel.org/show_bug.cgi?id=116741</t>
+  </si>
+  <si>
+    <t>bypass intended character-set restrictions or disrupt system-call auditing</t>
+  </si>
+  <si>
+    <t>https://bugzilla.kernel.org/show_bug.cgi?id=120681</t>
+  </si>
+  <si>
+    <t>https://bugzilla.kernel.org/show_bug.cgi?id=120131</t>
+  </si>
+  <si>
+    <t>cause a denial of service (out-of-bounds access or system crash) </t>
+  </si>
+  <si>
+    <t>https://bugzilla.redhat.com/show_bug.cgi?id=1362466</t>
+  </si>
+  <si>
+    <t>cause a denial of service (heap-based buffer overflow) or possibly gain privileges</t>
+  </si>
+  <si>
+    <t>https://bugzilla.redhat.com/show_bug.cgi?id=1362457</t>
+  </si>
+  <si>
+    <t>DSA-3659</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compiler optimization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cause a denial of service (host OS crash) or gain privileges</t>
+  </si>
+  <si>
+    <t>paravirtualized backend of Xen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://resources.infosecinstitute.com/exploiting-windows-drivers-double-fetch-race-condition-vulnerability/</t>
+  </si>
+  <si>
+    <t>bypass string comparison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bochspwn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kernel's key management facility</t>
+  </si>
+  <si>
+    <t>netfilter for Linux kernel</t>
+  </si>
+  <si>
+    <t>https://bugzilla.redhat.com/show_bug.cgi?id=191698</t>
+  </si>
+  <si>
+    <t>https://www.spinics.net/lists/backports/msg03072.html</t>
+  </si>
+  <si>
+    <t>https://bugzilla.redhat.com/show_bug.cgi?id=1187534</t>
+  </si>
+  <si>
+    <t>https://www.insinuator.net/2015/12/xen-xsa-155-double-fetches-in-paravirtualized-devices/</t>
+  </si>
+  <si>
+    <t>Gain privileges</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Information leakage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bypassing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Denial of Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memory corruption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system crash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out of bound array access</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drive 40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffer overflow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Percentage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Occurrence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gain privileges</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gain privileges,read the contents of arbitrary kernel memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dxgkml.sys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net/compat.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyutils.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/net/ipv4/netfilter/ip_tables.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fs/fhandle.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drivers/misc/mic/host/mic_virtio.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">obtain sensitive information from kernel memory or cause a denial of service (memory corruption and system crash) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2016-6130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obtain sensitive information from kernel memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kernel/auditsc.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cause a denial of service (out-of-bounds array access)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drivers/scsi/aacraid/commctrl.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.9-rc1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>include/linux/list.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D EQSecure Professional Edition 4.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bypassing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cve-2013-1248</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cve-2013-1277</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cve-2006-0457</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cve-2016-5728</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gain privileges &amp; information leakage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>denail of service &amp; infor leakage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gain privileges &amp; denail of service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cve-2016-6516</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cve-2015-8550</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kernel memory buffer over-read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trigger read operations on additional memory locations (leakage, over-read)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null pointer crash(Denail of service)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cve-2015-1420</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS13-016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Percentage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gain privileges</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Information leakage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Denial of service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Categories</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2008-2252</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2014-1819</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows Server 2003 SP2, Windows Vista SP2, Windows Server 2008 SP2 and R2 SP1, Windows 7 SP1, Windows 8, Windows 8.1, Windows Server 2012 Gold and R2, and Windows RT Gold and 8.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Font</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>does not properly control access to objects associated with font files</t>
+  </si>
+  <si>
+    <t>win32k.sys</t>
+  </si>
+  <si>
+    <t>MS14-045</t>
+  </si>
+  <si>
+    <t>CVE-2016-9381</t>
+  </si>
+  <si>
+    <t>Xen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Race condition in QEMU in Xen</t>
+  </si>
+  <si>
+    <t>CVE-2017-8813</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.10.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drivers/media/pci/saa7164/saa7164-bus.c</t>
+  </si>
+  <si>
+    <t>denial of service (out-of-bounds array access)</t>
+  </si>
+  <si>
+    <t>I/O memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xenbits.xen.org/xsa/advisory-197.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XSA-197</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>KHOBE Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.19.1 </t>
-  </si>
-  <si>
-    <t>DSA-3170</t>
-  </si>
-  <si>
-    <t>DSA-3616</t>
-  </si>
-  <si>
-    <t>MIC VOP (Virtio Over PCIe) driver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IBM (z-Series) s390 platform driver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Linux Auditing subsystem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expose the Chrome OS Embedded Controller to user-space</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The aacraid driver (adds support for AdaptecRAID controllers)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file system</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sizechecking(inter-precedure)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bugzilla.kernel.org/show_bug.cgi?id=116651</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bugzilla.kernel.org/show_bug.cgi?id=116741</t>
-  </si>
-  <si>
-    <t>bypass intended character-set restrictions or disrupt system-call auditing</t>
-  </si>
-  <si>
-    <t>https://bugzilla.kernel.org/show_bug.cgi?id=120681</t>
-  </si>
-  <si>
-    <t>https://bugzilla.kernel.org/show_bug.cgi?id=120131</t>
-  </si>
-  <si>
-    <t>cause a denial of service (out-of-bounds access or system crash) </t>
-  </si>
-  <si>
-    <t>https://bugzilla.redhat.com/show_bug.cgi?id=1362466</t>
-  </si>
-  <si>
-    <t>cause a denial of service (heap-based buffer overflow) or possibly gain privileges</t>
-  </si>
-  <si>
-    <t>https://bugzilla.redhat.com/show_bug.cgi?id=1362457</t>
-  </si>
-  <si>
-    <t>DSA-3659</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>compiler optimization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cause a denial of service (host OS crash) or gain privileges</t>
-  </si>
-  <si>
-    <t>paravirtualized backend of Xen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://resources.infosecinstitute.com/exploiting-windows-drivers-double-fetch-race-condition-vulnerability/</t>
-  </si>
-  <si>
-    <t>bypass string comparison</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bochspwn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kernel's key management facility</t>
-  </si>
-  <si>
-    <t>netfilter for Linux kernel</t>
-  </si>
-  <si>
-    <t>https://bugzilla.redhat.com/show_bug.cgi?id=191698</t>
-  </si>
-  <si>
-    <t>https://www.spinics.net/lists/backports/msg03072.html</t>
-  </si>
-  <si>
-    <t>https://bugzilla.redhat.com/show_bug.cgi?id=1187534</t>
-  </si>
-  <si>
-    <t>https://www.insinuator.net/2015/12/xen-xsa-155-double-fetches-in-paravirtualized-devices/</t>
-  </si>
-  <si>
-    <t>Gain privileges</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Information leakage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bypassing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Denial of Service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memory corruption</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>system crash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>out of bound array access</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drive 40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffer overflow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Percentage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Occurrence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gain privileges</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gain privileges,read the contents of arbitrary kernel memory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dxgkml.sys</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net/compat.c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>keyutils.h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/net/ipv4/netfilter/ip_tables.c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fs/fhandle.c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drivers/misc/mic/host/mic_virtio.c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">obtain sensitive information from kernel memory or cause a denial of service (memory corruption and system crash) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CVE-2016-6130</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>obtain sensitive information from kernel memory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kernel/auditsc.c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cause a denial of service (out-of-bounds array access)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drivers/scsi/aacraid/commctrl.c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.9-rc1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>include/linux/list.h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D EQSecure Professional Edition 4.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bypassing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cve-2013-1248</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cve-2013-1277</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cve-2006-0457</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cve-2016-5728</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gain privileges &amp; information leakage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>denail of service &amp; infor leakage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gain privileges &amp; denail of service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cve-2016-6516</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cve-2015-8550</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kernel memory buffer over-read</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trigger read operations on additional memory locations (leakage, over-read)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Null pointer crash(Denail of service)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cve-2015-1420</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS13-016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Percentage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gain privileges</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Information leakage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Denial of service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Categories</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CVE-2008-2252</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CVE-2014-1819</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Windows</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Windows Server 2003 SP2, Windows Vista SP2, Windows Server 2008 SP2 and R2 SP1, Windows 7 SP1, Windows 8, Windows 8.1, Windows Server 2012 Gold and R2, and Windows RT Gold and 8.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Font</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>does not properly control access to objects associated with font files</t>
-  </si>
-  <si>
-    <t>win32k.sys</t>
-  </si>
-  <si>
-    <t>MS14-045</t>
-  </si>
-  <si>
-    <t>CVE-2016-9381</t>
-  </si>
-  <si>
-    <t>Xen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Race condition in QEMU in Xen</t>
-  </si>
-  <si>
-    <t>CVE-2017-8813</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Linux</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.10.14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drivers/media/pci/saa7164/saa7164-bus.c</t>
-  </si>
-  <si>
-    <t>denial of service (out-of-bounds array access)</t>
-  </si>
-  <si>
-    <t>I/O memory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://xenbits.xen.org/xsa/advisory-197.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XSA-197</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xen</t>
+  </si>
+  <si>
+    <t>Allows local users to bypass kernel-mode hook handlers, and execute dangerous code that would otherwise be blocked by a handler but not blocked by signature-based malware detection, via certain user-space memory changes during hook-handler execution, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Allows local users to gain privileges, and consequently read the contents of arbitrary kernel memory locations, via a crafted application</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Allows local users to gain privileges, and consequently read the contents of arbitrary kernel memory locations, via a crafted application</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Allows local users to gain privileges via a crafted application that leverages incorrect handling of objects in memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Allows local users to gain privileges via a crafted application that leverages incorrect handling of objects in memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Allows local users to gain privileges via a crafted application that leverages improper handling of objects in memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Allows local users execute arbitrary code by calling sendmsg and modifying the message contents in another thread.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Does not properly validate parameters sent from user mode to the kernel, which allows local users to gain privileges via a crafted application</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1149,7 +1177,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="431">
+  <cellStyleXfs count="435">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1318,6 +1346,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1605,7 +1637,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="431">
+  <cellStyles count="435">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1819,6 +1851,8 @@
     <cellStyle name="超链接" xfId="425" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="427" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="433" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2036,6 +2070,8 @@
     <cellStyle name="访问过的超链接" xfId="426" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="428" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="434" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2134,11 +2170,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2122818344"/>
-        <c:axId val="-2122815992"/>
+        <c:axId val="-2121341592"/>
+        <c:axId val="-2122391944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2122818344"/>
+        <c:axId val="-2121341592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2147,7 +2183,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122815992"/>
+        <c:crossAx val="-2122391944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2155,7 +2191,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2122815992"/>
+        <c:axId val="-2122391944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2166,7 +2202,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122818344"/>
+        <c:crossAx val="-2121341592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2275,11 +2311,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2121055048"/>
-        <c:axId val="-2121034856"/>
+        <c:axId val="-2122943800"/>
+        <c:axId val="-2122524104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2121055048"/>
+        <c:axId val="-2122943800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2288,7 +2324,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2121034856"/>
+        <c:crossAx val="-2122524104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2296,7 +2332,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2121034856"/>
+        <c:axId val="-2122524104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2307,7 +2343,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2121055048"/>
+        <c:crossAx val="-2122943800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2723,8 +2759,8 @@
   <dimension ref="A1:K116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D86" sqref="D86"/>
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2736,14 +2772,14 @@
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
     <col min="7" max="7" width="17.6640625" customWidth="1"/>
     <col min="8" max="8" width="32.5" customWidth="1"/>
-    <col min="9" max="9" width="42.5" customWidth="1"/>
+    <col min="9" max="9" width="67" customWidth="1"/>
     <col min="10" max="10" width="36.33203125" customWidth="1"/>
     <col min="11" max="11" width="52.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -2752,28 +2788,28 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="60">
@@ -2781,60 +2817,62 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>19</v>
+        <v>292</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="30">
+    <row r="3" spans="1:11" ht="60">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>145</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>181</v>
+        <v>285</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K3" s="4"/>
     </row>
@@ -2843,27 +2881,27 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="I4" s="4"/>
       <c r="J4" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -2872,27 +2910,27 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K5" s="4"/>
     </row>
@@ -2901,27 +2939,27 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="I6" s="4"/>
       <c r="J6" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K6" s="4"/>
     </row>
@@ -2930,27 +2968,27 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="I7" s="4"/>
       <c r="J7" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K7" s="4"/>
     </row>
@@ -2959,27 +2997,27 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="I8" s="4"/>
       <c r="J8" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K8" s="4"/>
     </row>
@@ -2988,27 +3026,27 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="I9" s="4"/>
       <c r="J9" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K9" s="4"/>
     </row>
@@ -3017,27 +3055,27 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="I10" s="4"/>
       <c r="J10" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K10" s="4"/>
     </row>
@@ -3046,27 +3084,27 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K11" s="4"/>
     </row>
@@ -3075,27 +3113,27 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="I12" s="4"/>
       <c r="J12" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K12" s="4"/>
     </row>
@@ -3104,27 +3142,27 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="I13" s="4"/>
       <c r="J13" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K13" s="4"/>
     </row>
@@ -3133,27 +3171,27 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K14" s="4"/>
     </row>
@@ -3162,27 +3200,27 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="I15" s="4"/>
       <c r="J15" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K15" s="4"/>
     </row>
@@ -3191,27 +3229,27 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="I16" s="4"/>
       <c r="J16" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K16" s="4"/>
     </row>
@@ -3220,27 +3258,27 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="I17" s="4"/>
       <c r="J17" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K17" s="4"/>
     </row>
@@ -3249,27 +3287,27 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="I18" s="4"/>
       <c r="J18" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K18" s="4"/>
     </row>
@@ -3278,27 +3316,27 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="I19" s="4"/>
       <c r="J19" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K19" s="4"/>
     </row>
@@ -3307,27 +3345,27 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="I20" s="4"/>
       <c r="J20" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K20" s="4"/>
     </row>
@@ -3336,27 +3374,27 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="I21" s="4"/>
       <c r="J21" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K21" s="4"/>
     </row>
@@ -3365,27 +3403,27 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="I22" s="4"/>
       <c r="J22" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K22" s="4"/>
     </row>
@@ -3394,27 +3432,27 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="I23" s="4"/>
       <c r="J23" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K23" s="4"/>
     </row>
@@ -3423,27 +3461,27 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="I24" s="4"/>
       <c r="J24" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K24" s="4"/>
     </row>
@@ -3452,27 +3490,27 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="I25" s="4"/>
       <c r="J25" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K25" s="4"/>
     </row>
@@ -3481,27 +3519,27 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="I26" s="4"/>
       <c r="J26" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K26" s="4"/>
     </row>
@@ -3510,27 +3548,27 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="I27" s="4"/>
       <c r="J27" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K27" s="4"/>
     </row>
@@ -3539,27 +3577,27 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="I28" s="4"/>
       <c r="J28" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K28" s="4"/>
     </row>
@@ -3568,27 +3606,27 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="I29" s="4"/>
       <c r="J29" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K29" s="4"/>
     </row>
@@ -3597,27 +3635,27 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="I30" s="4"/>
       <c r="J30" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K30" s="4"/>
     </row>
@@ -3626,27 +3664,27 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="I31" s="4"/>
       <c r="J31" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K31" s="4"/>
     </row>
@@ -3655,27 +3693,27 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="I32" s="4"/>
       <c r="J32" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K32" s="4"/>
     </row>
@@ -3684,27 +3722,27 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="I33" s="4"/>
       <c r="J33" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K33" s="4"/>
     </row>
@@ -3713,27 +3751,27 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="I34" s="4"/>
       <c r="J34" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K34" s="4"/>
     </row>
@@ -3742,27 +3780,27 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="I35" s="4"/>
       <c r="J35" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K35" s="4"/>
     </row>
@@ -3771,27 +3809,27 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F36" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="I36" s="4"/>
       <c r="J36" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K36" s="4"/>
     </row>
@@ -3800,27 +3838,27 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="I37" s="4"/>
       <c r="J37" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K37" s="4"/>
     </row>
@@ -3829,29 +3867,29 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>19</v>
+        <v>286</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K38" s="4"/>
     </row>
@@ -3860,13 +3898,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>4</v>
@@ -3876,13 +3914,13 @@
         <v>7</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K39" s="4"/>
     </row>
@@ -3891,13 +3929,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>4</v>
@@ -3907,13 +3945,13 @@
         <v>7</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K40" s="4"/>
     </row>
@@ -3922,13 +3960,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>4</v>
@@ -3938,13 +3976,13 @@
         <v>7</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K41" s="4"/>
     </row>
@@ -3953,13 +3991,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>4</v>
@@ -3969,13 +4007,13 @@
         <v>7</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K42" s="4"/>
     </row>
@@ -3984,13 +4022,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>4</v>
@@ -4000,13 +4038,13 @@
         <v>7</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K43" s="4"/>
     </row>
@@ -4015,13 +4053,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>4</v>
@@ -4031,13 +4069,13 @@
         <v>7</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K44" s="4"/>
     </row>
@@ -4046,13 +4084,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>4</v>
@@ -4062,13 +4100,13 @@
         <v>7</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K45" s="4"/>
     </row>
@@ -4077,13 +4115,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>4</v>
@@ -4093,13 +4131,13 @@
         <v>7</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K46" s="4"/>
     </row>
@@ -4108,13 +4146,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>4</v>
@@ -4124,13 +4162,13 @@
         <v>7</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K47" s="4"/>
     </row>
@@ -4139,13 +4177,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>4</v>
@@ -4155,13 +4193,13 @@
         <v>7</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K48" s="4"/>
     </row>
@@ -4170,13 +4208,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>4</v>
@@ -4186,13 +4224,13 @@
         <v>7</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K49" s="4"/>
     </row>
@@ -4201,13 +4239,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>4</v>
@@ -4217,13 +4255,13 @@
         <v>7</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K50" s="4"/>
     </row>
@@ -4232,13 +4270,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>4</v>
@@ -4248,13 +4286,13 @@
         <v>7</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K51" s="4"/>
     </row>
@@ -4263,13 +4301,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>4</v>
@@ -4279,13 +4317,13 @@
         <v>7</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K52" s="4"/>
     </row>
@@ -4294,13 +4332,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>4</v>
@@ -4310,13 +4348,13 @@
         <v>7</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K53" s="4"/>
     </row>
@@ -4325,13 +4363,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>4</v>
@@ -4341,13 +4379,13 @@
         <v>7</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K54" s="4"/>
     </row>
@@ -4356,13 +4394,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>4</v>
@@ -4372,13 +4410,13 @@
         <v>7</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K55" s="4"/>
     </row>
@@ -4387,13 +4425,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>4</v>
@@ -4403,13 +4441,13 @@
         <v>7</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K56" s="4"/>
     </row>
@@ -4418,13 +4456,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>4</v>
@@ -4434,13 +4472,13 @@
         <v>7</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K57" s="4"/>
     </row>
@@ -4449,13 +4487,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>4</v>
@@ -4465,13 +4503,13 @@
         <v>7</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K58" s="4"/>
     </row>
@@ -4480,13 +4518,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>4</v>
@@ -4496,13 +4534,13 @@
         <v>7</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K59" s="4"/>
     </row>
@@ -4511,13 +4549,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>4</v>
@@ -4527,13 +4565,13 @@
         <v>7</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K60" s="4"/>
     </row>
@@ -4542,13 +4580,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>4</v>
@@ -4558,13 +4596,13 @@
         <v>7</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K61" s="4"/>
     </row>
@@ -4573,13 +4611,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>4</v>
@@ -4589,13 +4627,13 @@
         <v>7</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K62" s="4"/>
     </row>
@@ -4604,13 +4642,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>4</v>
@@ -4620,13 +4658,13 @@
         <v>7</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K63" s="4"/>
     </row>
@@ -4635,29 +4673,29 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H64" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H64" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I64" s="4" t="s">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K64" s="4"/>
     </row>
@@ -4666,29 +4704,29 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H65" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H65" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I65" s="4" t="s">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K65" s="4"/>
     </row>
@@ -4697,29 +4735,29 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H66" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H66" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I66" s="4" t="s">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K66" s="4"/>
     </row>
@@ -4728,29 +4766,29 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H67" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H67" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I67" s="4" t="s">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K67" s="4"/>
     </row>
@@ -4759,13 +4797,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -4773,9 +4811,11 @@
         <v>8</v>
       </c>
       <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
+      <c r="I68" s="4" t="s">
+        <v>288</v>
+      </c>
       <c r="J68" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K68" s="4"/>
     </row>
@@ -4784,13 +4824,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
@@ -4798,9 +4838,11 @@
         <v>8</v>
       </c>
       <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
+      <c r="I69" s="4" t="s">
+        <v>289</v>
+      </c>
       <c r="J69" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K69" s="4"/>
     </row>
@@ -4809,23 +4851,25 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
+      <c r="I70" s="4" t="s">
+        <v>290</v>
+      </c>
       <c r="J70" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K70" s="4"/>
     </row>
@@ -4834,23 +4878,25 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
+      <c r="I71" s="4" t="s">
+        <v>290</v>
+      </c>
       <c r="J71" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K71" s="4"/>
     </row>
@@ -4865,23 +4911,23 @@
         <v>3</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K72" s="4"/>
     </row>
@@ -4896,23 +4942,23 @@
         <v>3</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K73" s="4"/>
     </row>
@@ -4927,7 +4973,7 @@
         <v>3</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>4</v>
@@ -4937,13 +4983,13 @@
         <v>13</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K74" s="4"/>
     </row>
@@ -4952,31 +4998,31 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D75" s="6" t="s">
+      <c r="F75" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I75" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="E75" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>270</v>
-      </c>
       <c r="J75" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K75" s="3"/>
     </row>
@@ -4985,25 +5031,25 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D76" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H76" s="4"/>
       <c r="I76" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K76" s="4"/>
     </row>
@@ -5019,7 +5065,7 @@
         <v>8</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
@@ -5028,10 +5074,10 @@
       </c>
       <c r="I77" s="4"/>
       <c r="J77" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="45">
@@ -5053,13 +5099,13 @@
       </c>
       <c r="I78" s="4"/>
       <c r="J78" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="30">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -5070,24 +5116,26 @@
         <v>18</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I79" s="4"/>
+        <v>227</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>291</v>
+      </c>
       <c r="J79" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K79" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="K79" s="4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="30">
@@ -5095,27 +5143,27 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K80" s="4"/>
     </row>
@@ -5124,32 +5172,32 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C81" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D81" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="E81" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F81" s="4"/>
       <c r="G81" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="45">
@@ -5157,34 +5205,34 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="30">
@@ -5192,30 +5240,30 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H83" s="4"/>
       <c r="I83" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="60">
@@ -5223,7 +5271,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>18</v>
@@ -5235,22 +5283,22 @@
         <v>4</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="30">
@@ -5258,7 +5306,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>18</v>
@@ -5270,22 +5318,22 @@
         <v>4</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G85" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I85" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="H85" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>186</v>
-      </c>
       <c r="J85" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="45">
@@ -5293,7 +5341,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>18</v>
@@ -5302,23 +5350,23 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F86" s="4"/>
       <c r="G86" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="30">
@@ -5326,7 +5374,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>18</v>
@@ -5338,20 +5386,20 @@
         <v>4</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="30">
@@ -5359,7 +5407,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>18</v>
@@ -5371,22 +5419,22 @@
         <v>4</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="45">
@@ -5394,7 +5442,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>18</v>
@@ -5403,23 +5451,23 @@
         <v>4.7</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="30">
@@ -5431,26 +5479,26 @@
         <v>18</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -5458,28 +5506,28 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D91" s="6"/>
       <c r="E91" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H91" s="3"/>
       <c r="I91" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -5487,27 +5535,27 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D92" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>278</v>
-      </c>
       <c r="E92" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="I92" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="I92" s="3" t="s">
-        <v>281</v>
-      </c>
       <c r="J92" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K92" s="3"/>
     </row>
@@ -5566,13 +5614,13 @@
     <row r="97" spans="1:11">
       <c r="A97" s="3"/>
       <c r="B97" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
@@ -5585,7 +5633,7 @@
     <row r="98" spans="1:11">
       <c r="A98" s="3"/>
       <c r="B98" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C98" s="8">
         <v>0.46200000000000002</v>
@@ -5604,7 +5652,7 @@
     <row r="99" spans="1:11">
       <c r="A99" s="3"/>
       <c r="B99" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C99" s="8">
         <v>0.39500000000000002</v>
@@ -5623,7 +5671,7 @@
     <row r="100" spans="1:11">
       <c r="A100" s="3"/>
       <c r="B100" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C100" s="8">
         <v>0.42899999999999999</v>
@@ -5642,7 +5690,7 @@
     <row r="101" spans="1:11">
       <c r="A101" s="3"/>
       <c r="B101" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C101" s="8">
         <v>0.11</v>
@@ -5660,7 +5708,7 @@
     </row>
     <row r="114" spans="2:9">
       <c r="B114" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D114" s="1">
         <v>30</v>
@@ -5669,15 +5717,15 @@
         <v>0.33</v>
       </c>
       <c r="G114" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H114" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="115" spans="2:9">
       <c r="B115" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D115" s="1">
         <v>3</v>
@@ -5686,18 +5734,18 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G115" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H115" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I115" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="116" spans="2:9">
       <c r="B116" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D116" s="1">
         <v>2</v>
@@ -5706,10 +5754,10 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="G116" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H116" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -5740,15 +5788,15 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B2" s="2">
         <v>0.46600000000000003</v>
@@ -5759,7 +5807,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B3" s="2">
         <v>0.39800000000000002</v>
@@ -5770,7 +5818,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B4" s="2">
         <v>0.432</v>
@@ -5781,7 +5829,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B5" s="2">
         <v>0.10199999999999999</v>
@@ -5792,7 +5840,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -5800,7 +5848,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -5808,7 +5856,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -5816,7 +5864,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -5824,7 +5872,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
